--- a/ConvertedEqual/Hawaii_Converted.xlsx
+++ b/ConvertedEqual/Hawaii_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="287">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -840,6 +840,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL221"/>
+  <dimension ref="A1:AL233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,6 +1491,12 @@
       <c r="G3" s="2">
         <v>43915</v>
       </c>
+      <c r="H3" s="2">
+        <v>43938</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43907</v>
+      </c>
       <c r="J3" s="2">
         <v>43915</v>
       </c>
@@ -1470,6 +1512,9 @@
       <c r="N3" s="2">
         <v>43915</v>
       </c>
+      <c r="O3" s="2">
+        <v>43907</v>
+      </c>
       <c r="P3" s="2">
         <v>43915</v>
       </c>
@@ -1482,6 +1527,9 @@
       <c r="S3" s="2">
         <v>43915</v>
       </c>
+      <c r="T3" s="2">
+        <v>43915</v>
+      </c>
       <c r="U3" s="2">
         <v>43915</v>
       </c>
@@ -1489,6 +1537,9 @@
         <v>43915</v>
       </c>
       <c r="W3" s="2">
+        <v>43915</v>
+      </c>
+      <c r="X3" s="2">
         <v>43915</v>
       </c>
       <c r="Y3" s="2">
@@ -1698,7 +1749,7 @@
         <v>0.25</v>
       </c>
       <c r="V7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0.25</v>
@@ -1707,7 +1758,7 @@
         <v>0.1111111111</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1746,7 +1797,7 @@
         <v>0.25</v>
       </c>
       <c r="AL7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -3636,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3654,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3723,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0.1132478632461539</v>
+        <v>0.152777777775</v>
       </c>
     </row>
     <row r="26" spans="1:38">
@@ -3752,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3770,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3839,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.1132478632461539</v>
+        <v>0.152777777775</v>
       </c>
     </row>
     <row r="27" spans="1:38">
@@ -3868,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3886,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3955,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0.1901709401692308</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -3984,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -4002,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -4071,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0.1901709401692308</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -4100,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4118,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -4187,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>0.1901709401692308</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -4216,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4234,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -4303,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.1901709401692308</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="31" spans="1:38">
@@ -4332,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4350,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -4419,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0.1901709401692308</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="32" spans="1:38">
@@ -4448,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4466,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -4535,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>0.1901709401692308</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="33" spans="1:38">
@@ -4564,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4582,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -4597,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -4609,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -4651,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="AL33">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="34" spans="1:38">
@@ -4680,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4698,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -4713,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -4725,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -4767,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="AL34">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -4796,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4814,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -4829,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -4841,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -4883,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="AL35">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -4912,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4930,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -4945,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -4957,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -4999,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AL36">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="37" spans="1:38">
@@ -5028,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -5046,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -5061,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -5073,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -5115,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AL37">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="38" spans="1:38">
@@ -5144,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -5162,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -5177,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -5189,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -5231,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="AL38">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="39" spans="1:38">
@@ -5260,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -5278,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -5293,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -5305,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -5347,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="AL39">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="40" spans="1:38">
@@ -5376,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -5394,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -5409,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -5421,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -5463,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="AL40">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="41" spans="1:38">
@@ -5492,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -5510,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -5525,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -5537,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -5579,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="AL41">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="42" spans="1:38">
@@ -5608,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -5626,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -5641,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -5653,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -5695,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="AL42">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="43" spans="1:38">
@@ -5724,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5742,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -5757,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -5769,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -5811,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="AL43">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="44" spans="1:38">
@@ -5840,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -5858,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -5873,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -5885,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -5927,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AL44">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="45" spans="1:38">
@@ -5956,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5974,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -5989,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -6001,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -6043,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="AL45">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="46" spans="1:38">
@@ -6072,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -6090,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -6105,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -6117,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -6159,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="AL46">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="47" spans="1:38">
@@ -6188,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -6206,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -6221,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -6233,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -6275,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="AL47">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="48" spans="1:38">
@@ -6304,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -6322,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -6337,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -6349,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -6391,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="AL48">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="49" spans="1:38">
@@ -6420,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -6438,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -6453,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -6465,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -6507,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="AL49">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="50" spans="1:38">
@@ -6536,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -6554,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -6569,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -6581,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -6623,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="AL50">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="51" spans="1:38">
@@ -6652,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -6670,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -6685,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -6697,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -6739,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AL51">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="52" spans="1:38">
@@ -6768,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -6786,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -6801,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -6813,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>1</v>
@@ -6855,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="AL52">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="53" spans="1:38">
@@ -6884,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -6902,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -6917,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -6929,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -6971,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="AL53">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="54" spans="1:38">
@@ -7000,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -7018,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -7033,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -7045,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -7087,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="AL54">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="55" spans="1:38">
@@ -7116,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -7134,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -7149,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -7161,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -7203,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="AL55">
-        <v>0.7264957264923078</v>
+        <v>0.7638888888833333</v>
       </c>
     </row>
     <row r="56" spans="1:38">
@@ -7229,10 +7280,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -7250,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -7265,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -7277,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -7319,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="AL56">
-        <v>0.7735042735</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="57" spans="1:38">
@@ -7345,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -7366,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -7381,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -7393,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>1</v>
@@ -7435,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="AL57">
-        <v>0.7735042735</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="58" spans="1:38">
@@ -7461,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -7482,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -7497,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -7509,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -7551,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AL58">
-        <v>0.7735042735</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="59" spans="1:38">
@@ -7577,10 +7628,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -7598,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -7613,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -7625,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -7667,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="AL59">
-        <v>0.8504273504230769</v>
+        <v>0.9166666666583333</v>
       </c>
     </row>
     <row r="60" spans="1:38">
@@ -7693,10 +7744,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -7714,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -7729,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -7741,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -7783,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="AL60">
-        <v>0.8504273504230769</v>
+        <v>0.9166666666583333</v>
       </c>
     </row>
     <row r="61" spans="1:38">
@@ -7809,10 +7860,10 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -7830,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -7845,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
         <v>1</v>
@@ -7857,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -7899,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="AL61">
-        <v>0.8504273504230769</v>
+        <v>0.9166666666583333</v>
       </c>
     </row>
     <row r="62" spans="1:38">
@@ -7925,10 +7976,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -7946,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -7961,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>1</v>
@@ -7973,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>1</v>
@@ -8015,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="AL62">
-        <v>0.8504273504230769</v>
+        <v>0.9166666666583333</v>
       </c>
     </row>
     <row r="63" spans="1:38">
@@ -8041,10 +8092,10 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -8062,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -8077,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
         <v>1</v>
@@ -8089,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -8131,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="AL63">
-        <v>0.8504273504230769</v>
+        <v>0.9166666666583333</v>
       </c>
     </row>
     <row r="64" spans="1:38">
@@ -8157,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -8178,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -8193,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -8205,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -8247,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="AL64">
-        <v>0.8504273504230769</v>
+        <v>0.9166666666583333</v>
       </c>
     </row>
     <row r="65" spans="1:38">
@@ -8276,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -8294,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -8309,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65">
         <v>1</v>
@@ -8321,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65">
         <v>1</v>
@@ -8363,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AL65">
-        <v>0.8034188034153846</v>
+        <v>0.8472222222166667</v>
       </c>
     </row>
     <row r="66" spans="1:38">
@@ -8392,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -8410,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -8425,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66">
         <v>1</v>
@@ -8437,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66">
         <v>1</v>
@@ -8479,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="AL66">
-        <v>0.8034188034153846</v>
+        <v>0.8472222222166667</v>
       </c>
     </row>
     <row r="67" spans="1:38">
@@ -8508,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -8526,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -8541,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67">
         <v>1</v>
@@ -8553,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -8595,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="AL67">
-        <v>0.8034188034153846</v>
+        <v>0.8472222222166667</v>
       </c>
     </row>
     <row r="68" spans="1:38">
@@ -8624,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -8642,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -8657,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68">
         <v>1</v>
@@ -8669,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -8711,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="AL68">
-        <v>0.8034188034153846</v>
+        <v>0.8472222222166667</v>
       </c>
     </row>
     <row r="69" spans="1:38">
@@ -8740,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -8758,7 +8809,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -8773,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -8785,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>1</v>
@@ -8827,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="AL69">
-        <v>0.8034188034153846</v>
+        <v>0.8472222222166667</v>
       </c>
     </row>
     <row r="70" spans="1:38">
@@ -8856,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -8874,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -8889,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70">
         <v>1</v>
@@ -8901,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70">
         <v>1</v>
@@ -8943,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="AL70">
-        <v>0.8034188034153846</v>
+        <v>0.8472222222166667</v>
       </c>
     </row>
     <row r="71" spans="1:38">
@@ -8972,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -8990,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -9005,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71">
         <v>1</v>
@@ -9017,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71">
         <v>1</v>
@@ -9059,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="AL71">
-        <v>0.8034188034153846</v>
+        <v>0.8472222222166667</v>
       </c>
     </row>
     <row r="72" spans="1:38">
@@ -9106,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -9121,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72">
         <v>1</v>
@@ -9133,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72">
         <v>1</v>
@@ -9175,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AL72">
-        <v>0.7948717948692308</v>
+        <v>0.8287037037000001</v>
       </c>
     </row>
     <row r="73" spans="1:38">
@@ -9222,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -9237,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -9249,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -9291,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AL73">
-        <v>0.7948717948692308</v>
+        <v>0.8287037037000001</v>
       </c>
     </row>
     <row r="74" spans="1:38">
@@ -9338,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -9353,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74">
         <v>1</v>
@@ -9365,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74">
         <v>1</v>
@@ -9407,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="AL74">
-        <v>0.7948717948692308</v>
+        <v>0.8287037037000001</v>
       </c>
     </row>
     <row r="75" spans="1:38">
@@ -9454,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -9469,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75">
         <v>1</v>
@@ -9481,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -9523,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="AL75">
-        <v>0.7948717948692308</v>
+        <v>0.8287037037000001</v>
       </c>
     </row>
     <row r="76" spans="1:38">
@@ -9570,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -9585,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76">
         <v>1</v>
@@ -9597,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -9639,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="AL76">
-        <v>0.7948717948692308</v>
+        <v>0.8287037037000001</v>
       </c>
     </row>
     <row r="77" spans="1:38">
@@ -9686,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -9701,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -9713,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>1</v>
@@ -9755,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="AL77">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="78" spans="1:38">
@@ -9802,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -9817,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78">
         <v>1</v>
@@ -9829,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -9871,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="AL78">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="79" spans="1:38">
@@ -9918,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -9933,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79">
         <v>1</v>
@@ -9945,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>1</v>
@@ -9987,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AL79">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="80" spans="1:38">
@@ -10034,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -10049,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80">
         <v>1</v>
@@ -10061,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80">
         <v>1</v>
@@ -10103,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="AL80">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="81" spans="1:38">
@@ -10150,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -10165,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81">
         <v>1</v>
@@ -10177,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81">
         <v>1</v>
@@ -10219,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="AL81">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="82" spans="1:38">
@@ -10266,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -10281,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82">
         <v>1</v>
@@ -10293,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82">
         <v>1</v>
@@ -10335,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="AL82">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="83" spans="1:38">
@@ -10382,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -10397,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83">
         <v>1</v>
@@ -10409,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="X83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y83">
         <v>1</v>
@@ -10451,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="AL83">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="84" spans="1:38">
@@ -10498,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -10513,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84">
         <v>1</v>
@@ -10525,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>1</v>
@@ -10567,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="AL84">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="85" spans="1:38">
@@ -10614,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -10629,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85">
         <v>1</v>
@@ -10641,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -10683,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="AL85">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="86" spans="1:38">
@@ -10730,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -10745,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
         <v>1</v>
@@ -10757,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86">
         <v>1</v>
@@ -10799,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AL86">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="87" spans="1:38">
@@ -10846,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -10861,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87">
         <v>1</v>
@@ -10873,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="X87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -10915,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="AL87">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="88" spans="1:38">
@@ -10962,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -10977,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88">
         <v>1</v>
@@ -10989,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88">
         <v>1</v>
@@ -11031,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="AL88">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="89" spans="1:38">
@@ -11078,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -11093,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89">
         <v>1</v>
@@ -11105,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89">
         <v>1</v>
@@ -11147,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="AL89">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="90" spans="1:38">
@@ -11194,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -11209,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90">
         <v>1</v>
@@ -11221,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y90">
         <v>1</v>
@@ -11263,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="AL90">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="91" spans="1:38">
@@ -11310,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -11325,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91">
         <v>1</v>
@@ -11337,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="X91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y91">
         <v>1</v>
@@ -11379,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="AL91">
-        <v>0.7025641025615386</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="92" spans="1:38">
@@ -11426,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -11441,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92">
         <v>1</v>
@@ -11453,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="X92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y92">
         <v>1</v>
@@ -11495,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="AL92">
-        <v>0.6641025641000001</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="93" spans="1:38">
@@ -11542,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -11557,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U93">
         <v>1</v>
@@ -11569,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93">
         <v>1</v>
@@ -11611,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AL93">
-        <v>0.6641025641000001</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="94" spans="1:38">
@@ -11658,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -11673,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -11685,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94">
         <v>1</v>
@@ -11727,7 +11778,7 @@
         <v>1</v>
       </c>
       <c r="AL94">
-        <v>0.6641025641000001</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="95" spans="1:38">
@@ -11774,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -11789,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95">
         <v>1</v>
@@ -11801,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="X95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y95">
         <v>1</v>
@@ -11843,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="AL95">
-        <v>0.6641025641000001</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="96" spans="1:38">
@@ -11890,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -11905,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96">
         <v>1</v>
@@ -11917,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -11959,7 +12010,7 @@
         <v>1</v>
       </c>
       <c r="AL96">
-        <v>0.6641025641000001</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="97" spans="1:38">
@@ -12006,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -12021,7 +12072,7 @@
         <v>1</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -12033,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="X97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -12075,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="AL97">
-        <v>0.6641025641000001</v>
+        <v>0.7287037037</v>
       </c>
     </row>
     <row r="98" spans="1:38">
@@ -12122,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -12137,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="T98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98">
         <v>1</v>
@@ -12149,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="X98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y98">
         <v>1</v>
@@ -12191,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="AL98">
-        <v>0.6384615384615385</v>
+        <v>0.700925925925</v>
       </c>
     </row>
     <row r="99" spans="1:38">
@@ -12238,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -12253,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99">
         <v>1</v>
@@ -12265,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y99">
         <v>1</v>
@@ -12307,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="AL99">
-        <v>0.6076923076923078</v>
+        <v>0.6675925925916667</v>
       </c>
     </row>
     <row r="100" spans="1:38">
@@ -12354,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -12369,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="T100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100">
         <v>1</v>
@@ -12381,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="X100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y100">
         <v>1</v>
@@ -12423,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AL100">
-        <v>0.6076923076923078</v>
+        <v>0.6675925925916667</v>
       </c>
     </row>
     <row r="101" spans="1:38">
@@ -12470,7 +12521,7 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -12485,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101">
         <v>1</v>
@@ -12497,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="X101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y101">
         <v>1</v>
@@ -12539,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="AL101">
-        <v>0.5307692307692308</v>
+        <v>0.5842592592583333</v>
       </c>
     </row>
     <row r="102" spans="1:38">
@@ -12586,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -12601,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U102">
         <v>1</v>
@@ -12613,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="X102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y102">
         <v>1</v>
@@ -12655,7 +12706,7 @@
         <v>1</v>
       </c>
       <c r="AL102">
-        <v>0.4615384615384616</v>
+        <v>0.5092592592583333</v>
       </c>
     </row>
     <row r="103" spans="1:38">
@@ -12702,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -12717,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U103">
         <v>1</v>
@@ -12729,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="X103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y103">
         <v>1</v>
@@ -12771,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="AL103">
-        <v>0.4615384615384616</v>
+        <v>0.5092592592583333</v>
       </c>
     </row>
     <row r="104" spans="1:38">
@@ -12818,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -12833,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104">
         <v>1</v>
@@ -12845,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="X104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y104">
         <v>1</v>
@@ -12887,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="AL104">
-        <v>0.4615384615384616</v>
+        <v>0.5092592592583333</v>
       </c>
     </row>
     <row r="105" spans="1:38">
@@ -12934,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -12949,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U105">
         <v>1</v>
@@ -12961,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="X105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y105">
         <v>1</v>
@@ -13003,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="AL105">
-        <v>0.4615384615384616</v>
+        <v>0.5092592592583333</v>
       </c>
     </row>
     <row r="106" spans="1:38">
@@ -13050,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -13065,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U106">
         <v>1</v>
@@ -13077,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y106">
         <v>0</v>
@@ -13119,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="AL106">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="107" spans="1:38">
@@ -13166,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -13181,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U107">
         <v>1</v>
@@ -13193,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y107">
         <v>0</v>
@@ -13235,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AL107">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="108" spans="1:38">
@@ -13282,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -13297,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="T108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U108">
         <v>1</v>
@@ -13309,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y108">
         <v>0</v>
@@ -13351,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="AL108">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="109" spans="1:38">
@@ -13398,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -13413,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="T109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109">
         <v>1</v>
@@ -13425,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="X109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y109">
         <v>0</v>
@@ -13467,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="AL109">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="110" spans="1:38">
@@ -13514,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -13529,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110">
         <v>1</v>
@@ -13541,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="X110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y110">
         <v>0</v>
@@ -13583,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AL110">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="111" spans="1:38">
@@ -13630,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -13645,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="T111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U111">
         <v>1</v>
@@ -13657,7 +13708,7 @@
         <v>1</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y111">
         <v>0</v>
@@ -13699,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="AL111">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="112" spans="1:38">
@@ -13746,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -13761,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="T112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112">
         <v>1</v>
@@ -13773,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="X112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y112">
         <v>0</v>
@@ -13815,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="AL112">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="113" spans="1:38">
@@ -13862,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -13877,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="T113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113">
         <v>1</v>
@@ -13889,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="X113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y113">
         <v>0</v>
@@ -13931,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="AL113">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="114" spans="1:38">
@@ -13978,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -13993,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="T114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114">
         <v>1</v>
@@ -14005,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y114">
         <v>0</v>
@@ -14047,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AL114">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="115" spans="1:38">
@@ -14094,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -14109,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U115">
         <v>1</v>
@@ -14121,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="X115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y115">
         <v>0</v>
@@ -14163,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AL115">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="116" spans="1:38">
@@ -14210,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -14225,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116">
         <v>1</v>
@@ -14237,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y116">
         <v>0</v>
@@ -14279,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="AL116">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="117" spans="1:38">
@@ -14326,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -14341,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117">
         <v>1</v>
@@ -14353,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="X117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y117">
         <v>0</v>
@@ -14395,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="AL117">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="118" spans="1:38">
@@ -14442,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -14457,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118">
         <v>1</v>
@@ -14469,7 +14520,7 @@
         <v>1</v>
       </c>
       <c r="X118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y118">
         <v>0</v>
@@ -14511,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="AL118">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="119" spans="1:38">
@@ -14558,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -14573,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U119">
         <v>1</v>
@@ -14585,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y119">
         <v>0</v>
@@ -14627,7 +14678,7 @@
         <v>1</v>
       </c>
       <c r="AL119">
-        <v>0.4038461538461539</v>
+        <v>0.4884259259249999</v>
       </c>
     </row>
     <row r="120" spans="1:38">
@@ -14743,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:38">
@@ -14859,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:38">
@@ -14975,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="AL122">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:38">
@@ -15091,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="AL123">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:38">
@@ -15207,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="AL124">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:38">
@@ -15323,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="AL125">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:38">
@@ -15439,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:38">
@@ -15555,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="AL127">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:38">
@@ -15671,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="AL128">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:38">
@@ -15787,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:38">
@@ -15903,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:38">
@@ -16019,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="AL131">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:38">
@@ -16135,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="AL132">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:38">
@@ -16251,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="AL133">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:38">
@@ -16367,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="AL134">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:38">
@@ -16483,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="AL135">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:38">
@@ -16599,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="AL136">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:38">
@@ -16715,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="AL137">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:38">
@@ -16831,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:38">
@@ -16947,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:38">
@@ -17063,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="AL140">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:38">
@@ -17179,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="AL141">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:38">
@@ -17295,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="AL142">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:38">
@@ -17411,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="AL143">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:38">
@@ -17527,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="AL144">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:38">
@@ -17643,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AL145">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:38">
@@ -17759,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="AL146">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:38">
@@ -17875,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:38">
@@ -17991,7 +18042,7 @@
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:38">
@@ -18107,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="AL149">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:38">
@@ -18223,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="AL150">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:38">
@@ -18339,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="AL151">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:38">
@@ -18455,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="AL152">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:38">
@@ -18571,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="AL153">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:38">
@@ -18687,7 +18738,7 @@
         <v>0</v>
       </c>
       <c r="AL154">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:38">
@@ -18803,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="AL155">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:38">
@@ -18919,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:38">
@@ -19035,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="AL157">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:38">
@@ -19151,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="AL158">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:38">
@@ -19267,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="AL159">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:38">
@@ -19383,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="AL160">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:38">
@@ -19499,7 +19550,7 @@
         <v>0</v>
       </c>
       <c r="AL161">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:38">
@@ -19615,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="AL162">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:38">
@@ -19731,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="AL163">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:38">
@@ -19847,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="AL164">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:38">
@@ -19963,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="AL165">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:38">
@@ -20079,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="AL166">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:38">
@@ -20195,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="AL167">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:38">
@@ -20311,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="AL168">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:38">
@@ -20427,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="AL169">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:38">
@@ -20543,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="AL170">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:38">
@@ -20659,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="AL171">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:38">
@@ -20775,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="AL172">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:38">
@@ -20891,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="AL173">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:38">
@@ -21007,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="AL174">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:38">
@@ -21123,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="AL175">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:38">
@@ -21239,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="AL176">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:38">
@@ -21355,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="AL177">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:38">
@@ -21471,7 +21522,7 @@
         <v>0</v>
       </c>
       <c r="AL178">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:38">
@@ -21587,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="AL179">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:38">
@@ -21703,7 +21754,7 @@
         <v>0</v>
       </c>
       <c r="AL180">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:38">
@@ -21819,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="AL181">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:38">
@@ -21935,7 +21986,7 @@
         <v>0</v>
       </c>
       <c r="AL182">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:38">
@@ -22051,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="AL183">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:38">
@@ -22167,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="AL184">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:38">
@@ -22283,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="AL185">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:38">
@@ -22399,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="AL186">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:38">
@@ -22515,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="AL187">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:38">
@@ -22631,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="AL188">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:38">
@@ -22747,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="AL189">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:38">
@@ -22863,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="AL190">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:38">
@@ -22979,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="AL191">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:38">
@@ -23095,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="AL192">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:38">
@@ -23211,7 +23262,7 @@
         <v>0</v>
       </c>
       <c r="AL193">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:38">
@@ -23327,7 +23378,7 @@
         <v>0</v>
       </c>
       <c r="AL194">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:38">
@@ -23443,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="AL195">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:38">
@@ -23559,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="AL196">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:38">
@@ -23675,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="AL197">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:38">
@@ -23791,7 +23842,7 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:38">
@@ -23907,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="AL199">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:38">
@@ -24023,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="AL200">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:38">
@@ -24139,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="AL201">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:38">
@@ -24255,7 +24306,7 @@
         <v>0</v>
       </c>
       <c r="AL202">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:38">
@@ -24371,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="AL203">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:38">
@@ -24487,7 +24538,7 @@
         <v>0</v>
       </c>
       <c r="AL204">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:38">
@@ -24603,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="AL205">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:38">
@@ -24719,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="AL206">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:38">
@@ -24835,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="AL207">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:38">
@@ -24951,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="AL208">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:38">
@@ -25067,7 +25118,7 @@
         <v>0</v>
       </c>
       <c r="AL209">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:38">
@@ -25183,7 +25234,7 @@
         <v>0</v>
       </c>
       <c r="AL210">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:38">
@@ -25299,7 +25350,7 @@
         <v>0</v>
       </c>
       <c r="AL211">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:38">
@@ -25415,7 +25466,7 @@
         <v>0</v>
       </c>
       <c r="AL212">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:38">
@@ -25531,7 +25582,7 @@
         <v>0</v>
       </c>
       <c r="AL213">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:38">
@@ -25647,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="AL214">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:38">
@@ -25763,7 +25814,7 @@
         <v>0</v>
       </c>
       <c r="AL215">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:38">
@@ -25879,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="AL216">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:38">
@@ -25995,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="AL217">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:38">
@@ -26111,7 +26162,7 @@
         <v>0</v>
       </c>
       <c r="AL218">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:38">
@@ -26227,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="AL219">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:38">
@@ -26343,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="AL220">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:38">
@@ -26459,7 +26510,1399 @@
         <v>0</v>
       </c>
       <c r="AL221">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38">
+      <c r="A222" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>1</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38">
+      <c r="A223" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:38">
+      <c r="A224" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>1</v>
+      </c>
+      <c r="AC224">
+        <v>1</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:38">
+      <c r="A225" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>1</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:38">
+      <c r="A226" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:38">
+      <c r="A227" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:38">
+      <c r="A228" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>1</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:38">
+      <c r="A229" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>1</v>
+      </c>
+      <c r="AC229">
+        <v>1</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:38">
+      <c r="A230" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>1</v>
+      </c>
+      <c r="AC230">
+        <v>1</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:38">
+      <c r="A231" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>1</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:38">
+      <c r="A232" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>1</v>
+      </c>
+      <c r="AC232">
+        <v>1</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:38">
+      <c r="A233" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>1</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -26571,6 +28014,9 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
+      <c r="C8" s="2">
+        <v>43938</v>
+      </c>
       <c r="D8" s="2">
         <v>43946</v>
       </c>
@@ -26582,6 +28028,9 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="2">
+        <v>43907</v>
+      </c>
       <c r="D9" s="2">
         <v>43953</v>
       </c>
@@ -26663,6 +28112,9 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" s="2">
+        <v>43907</v>
+      </c>
       <c r="D15" s="2">
         <v>44001</v>
       </c>
@@ -26730,6 +28182,9 @@
       <c r="B20" t="s">
         <v>37</v>
       </c>
+      <c r="C20" s="2">
+        <v>43915</v>
+      </c>
       <c r="D20" s="2">
         <v>44001</v>
       </c>
@@ -26782,6 +28237,9 @@
       </c>
       <c r="B24" t="s">
         <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43915</v>
       </c>
       <c r="D24" s="2">
         <v>44001</v>
